--- a/SoLienLacDienTu/Uploads/TKB.xlsx
+++ b/SoLienLacDienTu/Uploads/TKB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test_demo_All\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B706D9-1ABF-497D-8B8C-C4A6EFB0975B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F50EE52-B1CA-452A-A588-AAA8D5A3A46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>MaMon</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Nam</t>
+  </si>
+  <si>
+    <t>IsSelected</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -495,7 +498,7 @@
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,8 +538,11 @@
       <c r="M1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -574,8 +580,11 @@
       <c r="M2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -613,8 +622,11 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -652,8 +664,11 @@
       <c r="M4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -691,8 +706,11 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -730,8 +748,11 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -769,8 +790,11 @@
       <c r="M7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -808,8 +832,11 @@
       <c r="M8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -847,8 +874,11 @@
       <c r="M9" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -886,8 +916,11 @@
       <c r="M10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -925,8 +958,11 @@
       <c r="M11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -966,8 +1002,11 @@
       <c r="M12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1005,8 +1044,11 @@
       <c r="M13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -1043,6 +1085,9 @@
       </c>
       <c r="M14" s="1">
         <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
